--- a/tests/xlsx/selectfromrange_from_select.xlsx
+++ b/tests/xlsx/selectfromrange_from_select.xlsx
@@ -17,6 +17,42 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">=2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">=9</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48,12 +84,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,12 +132,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,7 +211,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -194,13 +240,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -217,10 +267,6 @@
       <c r="D1" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="e">
-        <f aca="false">selectfromrange(C1:C2)</f>
-        <v>#NAME?</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -236,10 +282,6 @@
       <c r="D2" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="e">
-        <f aca="false">selectfromrange(C1:C2)</f>
-        <v>#NAME?</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="e">
@@ -247,13 +289,25 @@
         <v>#NAME?</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="e">
+        <f aca="false">selectfromrange(C1:C2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="e">
+        <f aca="false">selectfromrange(C1:C2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1">
+  <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>9</formula>
     </cfRule>
@@ -265,5 +319,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>